--- a/biology/Botanique/Louis_Picarda/Louis_Picarda.xlsx
+++ b/biology/Botanique/Louis_Picarda/Louis_Picarda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Picarda  (né le 18 juillet 1848 à Langonnet, mort le 26 décembre 1901) est un Père spiritain et un biologiste français.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du maire de Meslan, Morbihan, Louis Picarda naît dans une famille qui aura quatre enfants spiritains.
-Il est ordonné prêtre en 1880 dans la Congrégation du Saint-Esprit,  part à la Martinique jusqu'en 1886  où il avait rencontré quelques années auparavant le père Duss, qui étudiait la  flore des Antilles françaises. Louis s'intéresse à la Conchyliologie de la Martinique, puis à l'entomologie et à la bryologie. Professeur de sciences baturelles, d'histoire naturelle à Fort-de-France (1874-1879) et de Botanique à Port-au-Prince (1886) [1] il continue ses recherches et envoie ses spécimens à des chercheurs d'Europe.
+Il est ordonné prêtre en 1880 dans la Congrégation du Saint-Esprit,  part à la Martinique jusqu'en 1886  où il avait rencontré quelques années auparavant le père Duss, qui étudiait la  flore des Antilles françaises. Louis s'intéresse à la Conchyliologie de la Martinique, puis à l'entomologie et à la bryologie. Professeur de sciences baturelles, d'histoire naturelle à Fort-de-France (1874-1879) et de Botanique à Port-au-Prince (1886)  il continue ses recherches et envoie ses spécimens à des chercheurs d'Europe.
 Les chercheurs donnèrent alors son nom à plusieurs spécimens de plantes, notamment un genre de rubiacée Picardaea. Karl Müller étudia ainsi les mousses qu'il a trouvées et les décrit en 1898 dans la revue Hedwigia, et l'herbier des phanérogames de Carl Wilhelm Leopold Krug et Ignatz Urban comportait 1667 numéros de Picardia. O. Warburg[Qui ?], Rudolf Schlechter appelleront aussi Picarda plusieurs plantes[Lesquelles ?]. Anne Casimir Pyrame de Candolle donne le nom de Picardae C.D.C à une plante[Laquelle ?]. Krug et Urban donnent aussi  son nom à nom  six espèces:
 Drypetes picardae
 Eugenia picardae
